--- a/Projects/Def/Charts with Goals and Variable Goals EN.xlsx
+++ b/Projects/Def/Charts with Goals and Variable Goals EN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2 - Study\Informatorio\Info 2024\VSC\Portfolio\projects\Proyectos Def\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\P\Projects\Def\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA686BF4-FB6E-4296-83DD-9A28430C8F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE86EC70-C99D-45B1-BB15-1F797E7334D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2205" yWindow="2205" windowWidth="10350" windowHeight="7290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variable goals" sheetId="1" r:id="rId1"/>
@@ -1692,16 +1692,9 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3700,6 +3693,7 @@
           <cell r="B5" t="str">
             <v>Juan Pérez</v>
           </cell>
+          <cell r="G5"/>
         </row>
         <row r="6">
           <cell r="B6" t="str">
@@ -3721,16 +3715,19 @@
           <cell r="B8" t="str">
             <v>Marta López</v>
           </cell>
+          <cell r="G8"/>
         </row>
         <row r="9">
           <cell r="B9" t="str">
             <v>Diego Suárez</v>
           </cell>
+          <cell r="G9"/>
         </row>
         <row r="10">
           <cell r="B10" t="str">
             <v>Laura Vega</v>
           </cell>
+          <cell r="G10"/>
         </row>
       </sheetData>
       <sheetData sheetId="48"/>
@@ -4063,13 +4060,13 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" customWidth="1"/>
+    <col min="4" max="5" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -4207,7 +4204,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
